--- a/wrangled_data/stop_fixo.xlsx
+++ b/wrangled_data/stop_fixo.xlsx
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2075,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6095,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="E285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6155,10 +6155,10 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="F303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="F310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="F320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="F322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="F324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="F325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -7015,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="F354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="F379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="F383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F390">
         <v>0</v>
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404">
         <v>0</v>
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F405">
         <v>0</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="F406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F415">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416">
         <v>0</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418">
         <v>0</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="F422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F423">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F424">
         <v>0</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425">
         <v>0</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="F428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="F430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F431">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432">
         <v>0</v>
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436">
         <v>0</v>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="F440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="E447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F447">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="E456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="F458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="E459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F459">
         <v>0</v>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="F461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="F462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F464">
         <v>0</v>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="F465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="F467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="F468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="F469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="E470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F470">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="F482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F485">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="F486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="E488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F488">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="E489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F489">
         <v>0</v>
@@ -10218,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="F491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="F492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="F500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="F501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="E504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F504">
         <v>0</v>
@@ -10638,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="F512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -10658,7 +10658,7 @@
         <v>0</v>
       </c>
       <c r="F513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="F514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="F526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="F531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="F532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="F533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="E535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F535">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="F536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="E538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F538">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="E541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F541">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="E549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F549">
         <v>0</v>
@@ -11398,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="F550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="E557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F557">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="E561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F561">
         <v>0</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="F564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="E565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F565">
         <v>0</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="E577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F577">
         <v>0</v>
@@ -11958,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="F578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -11998,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="F580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="F586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="E588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F588">
         <v>0</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="E592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F592">
         <v>0</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F593">
         <v>0</v>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
       <c r="E594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F594">
         <v>0</v>
@@ -12335,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="E597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F597">
         <v>0</v>
@@ -12355,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="E598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F598">
         <v>0</v>
@@ -12435,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="E602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F602">
         <v>0</v>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="F605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="E606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F606">
         <v>0</v>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="E611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F611">
         <v>0</v>
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="E621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F621">
         <v>0</v>
@@ -14235,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="E692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F692">
         <v>0</v>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="F699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -14998,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="F730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -15075,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="E734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F734">
         <v>0</v>
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="F747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -15635,10 +15635,10 @@
         <v>0</v>
       </c>
       <c r="E762">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -15698,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="F765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="F772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="E776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F776">
         <v>0</v>
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="E814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F814">
         <v>0</v>
@@ -17015,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="E831">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F831">
         <v>0</v>
@@ -17035,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="E832">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F832">
         <v>0</v>
@@ -19255,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="E943">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F943">
         <v>0</v>
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="F962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="F963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:6">
@@ -19675,7 +19675,7 @@
         <v>0</v>
       </c>
       <c r="E964">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F964">
         <v>0</v>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="E969">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F969">
         <v>0</v>
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
       <c r="F976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:6">
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="F977">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="F978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:6">
@@ -19995,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="E980">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F980">
         <v>0</v>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
       <c r="F981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:6">
@@ -20038,7 +20038,7 @@
         <v>0</v>
       </c>
       <c r="F982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:6">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="F983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="F984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="E985">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F985">
         <v>0</v>
@@ -20178,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="F989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="F990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="F991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -20235,7 +20235,7 @@
         <v>1</v>
       </c>
       <c r="E992">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F992">
         <v>0</v>
@@ -20298,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="F995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:6">
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
       <c r="F996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="F997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -20358,7 +20358,7 @@
         <v>1</v>
       </c>
       <c r="F998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -20398,7 +20398,7 @@
         <v>1</v>
       </c>
       <c r="F1000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -20415,7 +20415,7 @@
         <v>0</v>
       </c>
       <c r="E1001">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1001">
         <v>0</v>
@@ -20438,7 +20438,7 @@
         <v>0</v>
       </c>
       <c r="F1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -20455,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="E1003">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1003">
         <v>0</v>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="F1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:6">
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="F1007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -20575,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="E1009">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1009">
         <v>0</v>
@@ -20618,7 +20618,7 @@
         <v>0</v>
       </c>
       <c r="F1011">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="F1012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:6">
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="E1013">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1013">
         <v>0</v>
@@ -20675,7 +20675,7 @@
         <v>0</v>
       </c>
       <c r="E1014">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1014">
         <v>0</v>
@@ -20775,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="E1019">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1019">
         <v>0</v>
@@ -20795,7 +20795,7 @@
         <v>0</v>
       </c>
       <c r="E1020">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1020">
         <v>0</v>
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="E1021">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1021">
         <v>0</v>
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="F1022">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
       <c r="E1025">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1025">
         <v>0</v>
@@ -21035,7 +21035,7 @@
         <v>0</v>
       </c>
       <c r="E1032">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1032">
         <v>0</v>
@@ -21515,7 +21515,7 @@
         <v>0</v>
       </c>
       <c r="E1056">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1056">
         <v>0</v>
@@ -21555,7 +21555,7 @@
         <v>0</v>
       </c>
       <c r="E1058">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1058">
         <v>0</v>
@@ -22035,7 +22035,7 @@
         <v>0</v>
       </c>
       <c r="E1082">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1082">
         <v>0</v>
@@ -22075,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="E1084">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1084">
         <v>0</v>
@@ -22118,7 +22118,7 @@
         <v>0</v>
       </c>
       <c r="F1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -22178,7 +22178,7 @@
         <v>0</v>
       </c>
       <c r="F1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -22218,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="F1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:6">
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="E1097">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1097">
         <v>0</v>
@@ -23295,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="E1145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1145">
         <v>0</v>
@@ -23878,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="F1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="F1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:6">
@@ -24295,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="E1195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1195">
         <v>0</v>
@@ -24315,7 +24315,7 @@
         <v>0</v>
       </c>
       <c r="E1196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1196">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="F1209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -24598,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="F1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
       <c r="E1211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1211">
         <v>0</v>
@@ -24635,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="E1212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1212">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="F1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:6">
@@ -24798,7 +24798,7 @@
         <v>0</v>
       </c>
       <c r="F1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:6">
@@ -24835,10 +24835,10 @@
         <v>1</v>
       </c>
       <c r="E1222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:6">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="F1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:6">
@@ -24878,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="F1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:6">
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="F1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:6">
@@ -25018,7 +25018,7 @@
         <v>0</v>
       </c>
       <c r="F1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="E1233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1233">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="F1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="E1237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1237">
         <v>0</v>
@@ -25155,7 +25155,7 @@
         <v>0</v>
       </c>
       <c r="E1238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1238">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="F1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25218,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="F1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25255,7 +25255,7 @@
         <v>0</v>
       </c>
       <c r="E1243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1243">
         <v>0</v>
@@ -25355,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="E1248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1248">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="E1249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1249">
         <v>0</v>
@@ -25418,7 +25418,7 @@
         <v>0</v>
       </c>
       <c r="F1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:6">
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="E1252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1252">
         <v>0</v>
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="F1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:6">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F1258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:6">
@@ -25758,7 +25758,7 @@
         <v>0</v>
       </c>
       <c r="F1268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="E1270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1270">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>0</v>
       </c>
       <c r="E1290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1290">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="E1301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1301">
         <v>0</v>
@@ -26475,7 +26475,7 @@
         <v>1</v>
       </c>
       <c r="E1304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1304">
         <v>0</v>
@@ -26555,10 +26555,10 @@
         <v>1</v>
       </c>
       <c r="E1308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:6">
@@ -26675,7 +26675,7 @@
         <v>0</v>
       </c>
       <c r="E1314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1314">
         <v>0</v>
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="E1318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1318">
         <v>0</v>
@@ -26775,7 +26775,7 @@
         <v>0</v>
       </c>
       <c r="E1319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1319">
         <v>0</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="F1320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:6">
@@ -26898,7 +26898,7 @@
         <v>0</v>
       </c>
       <c r="F1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:6">
@@ -27375,7 +27375,7 @@
         <v>0</v>
       </c>
       <c r="E1349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1349">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="E1352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1352">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="F1354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:6">
@@ -27495,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="E1355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1355">
         <v>0</v>
@@ -27655,7 +27655,7 @@
         <v>0</v>
       </c>
       <c r="E1363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1363">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="F1364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1365" spans="1:6">
@@ -27738,7 +27738,7 @@
         <v>0</v>
       </c>
       <c r="F1367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368" spans="1:6">
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="F1368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1369" spans="1:6">
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="E1378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1378">
         <v>0</v>
@@ -28458,7 +28458,7 @@
         <v>0</v>
       </c>
       <c r="F1403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404" spans="1:6">
@@ -28558,7 +28558,7 @@
         <v>0</v>
       </c>
       <c r="F1408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409" spans="1:6">
@@ -28915,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="E1426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1426">
         <v>0</v>
@@ -30175,7 +30175,7 @@
         <v>0</v>
       </c>
       <c r="E1489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1489">
         <v>0</v>
@@ -30255,7 +30255,7 @@
         <v>0</v>
       </c>
       <c r="E1493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1493">
         <v>0</v>
@@ -30895,7 +30895,7 @@
         <v>0</v>
       </c>
       <c r="E1525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1525">
         <v>0</v>
@@ -30978,7 +30978,7 @@
         <v>0</v>
       </c>
       <c r="F1529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -31195,7 +31195,7 @@
         <v>0</v>
       </c>
       <c r="E1540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1540">
         <v>0</v>
@@ -31215,7 +31215,7 @@
         <v>0</v>
       </c>
       <c r="E1541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1541">
         <v>0</v>
@@ -31978,7 +31978,7 @@
         <v>0</v>
       </c>
       <c r="F1579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:6">
@@ -31995,7 +31995,7 @@
         <v>0</v>
       </c>
       <c r="E1580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1580">
         <v>0</v>
@@ -33015,7 +33015,7 @@
         <v>0</v>
       </c>
       <c r="E1631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1631">
         <v>0</v>
@@ -33118,7 +33118,7 @@
         <v>0</v>
       </c>
       <c r="F1636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637" spans="1:6">
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="E1641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1641">
         <v>0</v>
@@ -33235,7 +33235,7 @@
         <v>0</v>
       </c>
       <c r="E1642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1642">
         <v>0</v>
@@ -33258,7 +33258,7 @@
         <v>0</v>
       </c>
       <c r="F1643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1644" spans="1:6">
@@ -33478,7 +33478,7 @@
         <v>0</v>
       </c>
       <c r="F1654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -33495,7 +33495,7 @@
         <v>0</v>
       </c>
       <c r="E1655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1655">
         <v>0</v>
@@ -33515,7 +33515,7 @@
         <v>0</v>
       </c>
       <c r="E1656">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1656">
         <v>0</v>
@@ -33875,7 +33875,7 @@
         <v>0</v>
       </c>
       <c r="E1674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1674">
         <v>0</v>
@@ -34495,7 +34495,7 @@
         <v>0</v>
       </c>
       <c r="E1705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1705">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="E1822">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1822">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>0</v>
       </c>
       <c r="E1858">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1858">
         <v>0</v>
@@ -39078,7 +39078,7 @@
         <v>0</v>
       </c>
       <c r="F1934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1935" spans="1:6">
@@ -39098,7 +39098,7 @@
         <v>0</v>
       </c>
       <c r="F1935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1936" spans="1:6">
@@ -39118,7 +39118,7 @@
         <v>0</v>
       </c>
       <c r="F1936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1937" spans="1:6">
@@ -39235,7 +39235,7 @@
         <v>0</v>
       </c>
       <c r="E1942">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1942">
         <v>0</v>
@@ -39255,7 +39255,7 @@
         <v>0</v>
       </c>
       <c r="E1943">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1943">
         <v>0</v>
@@ -39558,7 +39558,7 @@
         <v>0</v>
       </c>
       <c r="F1958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1959" spans="1:6">
@@ -40155,7 +40155,7 @@
         <v>0</v>
       </c>
       <c r="E1988">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1988">
         <v>0</v>
@@ -40555,7 +40555,7 @@
         <v>0</v>
       </c>
       <c r="E2008">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2008">
         <v>0</v>
@@ -40658,7 +40658,7 @@
         <v>0</v>
       </c>
       <c r="F2013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2014" spans="1:6">
@@ -43238,7 +43238,7 @@
         <v>0</v>
       </c>
       <c r="F2142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2143" spans="1:6">
@@ -43538,7 +43538,7 @@
         <v>0</v>
       </c>
       <c r="F2157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2158" spans="1:6">
@@ -43618,7 +43618,7 @@
         <v>0</v>
       </c>
       <c r="F2161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2162" spans="1:6">
@@ -43715,7 +43715,7 @@
         <v>0</v>
       </c>
       <c r="E2166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2166">
         <v>0</v>
@@ -43735,7 +43735,7 @@
         <v>0</v>
       </c>
       <c r="E2167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2167">
         <v>0</v>
@@ -44035,7 +44035,7 @@
         <v>0</v>
       </c>
       <c r="E2182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2182">
         <v>0</v>
@@ -44555,7 +44555,7 @@
         <v>0</v>
       </c>
       <c r="E2208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2208">
         <v>0</v>
@@ -47658,7 +47658,7 @@
         <v>0</v>
       </c>
       <c r="F2363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364" spans="1:6">
@@ -47675,7 +47675,7 @@
         <v>0</v>
       </c>
       <c r="E2364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2364">
         <v>0</v>
@@ -47695,7 +47695,7 @@
         <v>0</v>
       </c>
       <c r="E2365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2365">
         <v>0</v>
@@ -47795,7 +47795,7 @@
         <v>0</v>
       </c>
       <c r="E2370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2370">
         <v>0</v>
@@ -48375,7 +48375,7 @@
         <v>0</v>
       </c>
       <c r="E2399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2399">
         <v>0</v>
@@ -48955,7 +48955,7 @@
         <v>0</v>
       </c>
       <c r="E2428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2428">
         <v>0</v>
@@ -49075,7 +49075,7 @@
         <v>0</v>
       </c>
       <c r="E2434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2434">
         <v>0</v>
@@ -49115,7 +49115,7 @@
         <v>0</v>
       </c>
       <c r="E2436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2436">
         <v>0</v>
@@ -49195,7 +49195,7 @@
         <v>0</v>
       </c>
       <c r="E2440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2440">
         <v>0</v>
@@ -49235,7 +49235,7 @@
         <v>0</v>
       </c>
       <c r="E2442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2442">
         <v>0</v>
@@ -50215,7 +50215,7 @@
         <v>0</v>
       </c>
       <c r="E2491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2491">
         <v>0</v>
@@ -50418,7 +50418,7 @@
         <v>0</v>
       </c>
       <c r="F2501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="1:6">
@@ -50478,7 +50478,7 @@
         <v>0</v>
       </c>
       <c r="F2504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2505" spans="1:6">
@@ -50495,10 +50495,10 @@
         <v>0</v>
       </c>
       <c r="E2505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2506" spans="1:6">
@@ -50515,7 +50515,7 @@
         <v>0</v>
       </c>
       <c r="E2506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2506">
         <v>0</v>
@@ -50538,7 +50538,7 @@
         <v>0</v>
       </c>
       <c r="F2507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2508" spans="1:6">
@@ -50835,7 +50835,7 @@
         <v>0</v>
       </c>
       <c r="E2522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2522">
         <v>0</v>
@@ -50875,7 +50875,7 @@
         <v>0</v>
       </c>
       <c r="E2524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2524">
         <v>0</v>
@@ -50895,7 +50895,7 @@
         <v>0</v>
       </c>
       <c r="E2525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2525">
         <v>0</v>
@@ -51395,7 +51395,7 @@
         <v>0</v>
       </c>
       <c r="E2550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2550">
         <v>0</v>
@@ -51495,7 +51495,7 @@
         <v>0</v>
       </c>
       <c r="E2555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2555">
         <v>0</v>
@@ -51538,7 +51538,7 @@
         <v>0</v>
       </c>
       <c r="F2557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2558" spans="1:6">
@@ -51598,7 +51598,7 @@
         <v>0</v>
       </c>
       <c r="F2560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2561" spans="1:6">
@@ -51695,7 +51695,7 @@
         <v>0</v>
       </c>
       <c r="E2565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2565">
         <v>0</v>
@@ -51918,7 +51918,7 @@
         <v>0</v>
       </c>
       <c r="F2576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2577" spans="1:6">
@@ -52115,7 +52115,7 @@
         <v>0</v>
       </c>
       <c r="E2586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2586">
         <v>0</v>
@@ -52255,7 +52255,7 @@
         <v>1</v>
       </c>
       <c r="E2593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2593">
         <v>0</v>
@@ -52515,7 +52515,7 @@
         <v>0</v>
       </c>
       <c r="E2606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2606">
         <v>0</v>
@@ -52595,7 +52595,7 @@
         <v>0</v>
       </c>
       <c r="E2610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2610">
         <v>0</v>
@@ -52695,7 +52695,7 @@
         <v>0</v>
       </c>
       <c r="E2615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2615">
         <v>0</v>
@@ -52715,7 +52715,7 @@
         <v>0</v>
       </c>
       <c r="E2616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2616">
         <v>0</v>
@@ -52738,7 +52738,7 @@
         <v>0</v>
       </c>
       <c r="F2617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2618" spans="1:6">
@@ -52798,7 +52798,7 @@
         <v>0</v>
       </c>
       <c r="F2620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2621" spans="1:6">
@@ -53278,7 +53278,7 @@
         <v>0</v>
       </c>
       <c r="F2644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2645" spans="1:6">
@@ -53855,7 +53855,7 @@
         <v>0</v>
       </c>
       <c r="E2673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2673">
         <v>0</v>
@@ -53895,7 +53895,7 @@
         <v>0</v>
       </c>
       <c r="E2675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2675">
         <v>0</v>
@@ -53918,7 +53918,7 @@
         <v>0</v>
       </c>
       <c r="F2676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2677" spans="1:6">
@@ -53958,7 +53958,7 @@
         <v>0</v>
       </c>
       <c r="F2678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2679" spans="1:6">
@@ -54238,7 +54238,7 @@
         <v>0</v>
       </c>
       <c r="F2692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2693" spans="1:6">
@@ -54378,7 +54378,7 @@
         <v>0</v>
       </c>
       <c r="F2699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2700" spans="1:6">
@@ -54398,7 +54398,7 @@
         <v>0</v>
       </c>
       <c r="F2700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2701" spans="1:6">
@@ -54415,7 +54415,7 @@
         <v>0</v>
       </c>
       <c r="E2701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2701">
         <v>0</v>
@@ -54435,7 +54435,7 @@
         <v>0</v>
       </c>
       <c r="E2702">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2702">
         <v>0</v>
@@ -54455,7 +54455,7 @@
         <v>0</v>
       </c>
       <c r="E2703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2703">
         <v>0</v>
@@ -54478,7 +54478,7 @@
         <v>0</v>
       </c>
       <c r="F2704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2705" spans="1:6">
@@ -54578,7 +54578,7 @@
         <v>0</v>
       </c>
       <c r="F2709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2710" spans="1:6">
@@ -54635,7 +54635,7 @@
         <v>0</v>
       </c>
       <c r="E2712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2712">
         <v>0</v>
@@ -54655,7 +54655,7 @@
         <v>0</v>
       </c>
       <c r="E2713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2713">
         <v>0</v>
@@ -54718,7 +54718,7 @@
         <v>0</v>
       </c>
       <c r="F2716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2717" spans="1:6">
@@ -54735,7 +54735,7 @@
         <v>0</v>
       </c>
       <c r="E2717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2717">
         <v>0</v>
@@ -54778,7 +54778,7 @@
         <v>0</v>
       </c>
       <c r="F2719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2720" spans="1:6">
@@ -54815,7 +54815,7 @@
         <v>0</v>
       </c>
       <c r="E2721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2721">
         <v>0</v>
@@ -54855,7 +54855,7 @@
         <v>0</v>
       </c>
       <c r="E2723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2723">
         <v>0</v>
@@ -54878,7 +54878,7 @@
         <v>0</v>
       </c>
       <c r="F2724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2725" spans="1:6">
@@ -54918,7 +54918,7 @@
         <v>0</v>
       </c>
       <c r="F2726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2727" spans="1:6">
@@ -54978,7 +54978,7 @@
         <v>0</v>
       </c>
       <c r="F2729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:6">
@@ -55035,7 +55035,7 @@
         <v>0</v>
       </c>
       <c r="E2732">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2732">
         <v>0</v>
@@ -55095,7 +55095,7 @@
         <v>0</v>
       </c>
       <c r="E2735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2735">
         <v>0</v>
@@ -55195,7 +55195,7 @@
         <v>0</v>
       </c>
       <c r="E2740">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2740">
         <v>0</v>
@@ -55215,7 +55215,7 @@
         <v>0</v>
       </c>
       <c r="E2741">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2741">
         <v>0</v>
@@ -55278,7 +55278,7 @@
         <v>0</v>
       </c>
       <c r="F2744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2745" spans="1:6">
@@ -55295,7 +55295,7 @@
         <v>0</v>
       </c>
       <c r="E2745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2745">
         <v>0</v>
@@ -55315,7 +55315,7 @@
         <v>0</v>
       </c>
       <c r="E2746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2746">
         <v>0</v>
@@ -55475,7 +55475,7 @@
         <v>0</v>
       </c>
       <c r="E2754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2754">
         <v>0</v>
@@ -55515,7 +55515,7 @@
         <v>0</v>
       </c>
       <c r="E2756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2756">
         <v>0</v>
@@ -55535,7 +55535,7 @@
         <v>0</v>
       </c>
       <c r="E2757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2757">
         <v>0</v>
@@ -55575,7 +55575,7 @@
         <v>0</v>
       </c>
       <c r="E2759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2759">
         <v>0</v>
@@ -55595,7 +55595,7 @@
         <v>0</v>
       </c>
       <c r="E2760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2760">
         <v>0</v>
@@ -55615,10 +55615,10 @@
         <v>1</v>
       </c>
       <c r="E2761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2762" spans="1:6">
@@ -55638,7 +55638,7 @@
         <v>0</v>
       </c>
       <c r="F2762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2763" spans="1:6">
@@ -55658,7 +55658,7 @@
         <v>0</v>
       </c>
       <c r="F2763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2764" spans="1:6">
@@ -55738,7 +55738,7 @@
         <v>0</v>
       </c>
       <c r="F2767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2768" spans="1:6">
@@ -55778,7 +55778,7 @@
         <v>0</v>
       </c>
       <c r="F2769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2770" spans="1:6">
@@ -56195,7 +56195,7 @@
         <v>0</v>
       </c>
       <c r="E2790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2790">
         <v>0</v>
@@ -56235,7 +56235,7 @@
         <v>0</v>
       </c>
       <c r="E2792">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2792">
         <v>0</v>
@@ -56335,7 +56335,7 @@
         <v>0</v>
       </c>
       <c r="E2797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2797">
         <v>0</v>
@@ -56635,7 +56635,7 @@
         <v>0</v>
       </c>
       <c r="E2812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2812">
         <v>0</v>
@@ -56918,7 +56918,7 @@
         <v>0</v>
       </c>
       <c r="F2826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2827" spans="1:6">
@@ -57175,7 +57175,7 @@
         <v>0</v>
       </c>
       <c r="E2839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2839">
         <v>0</v>
@@ -58095,7 +58095,7 @@
         <v>0</v>
       </c>
       <c r="E2885">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2885">
         <v>0</v>
@@ -58335,7 +58335,7 @@
         <v>0</v>
       </c>
       <c r="E2897">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2897">
         <v>0</v>
@@ -59178,7 +59178,7 @@
         <v>0</v>
       </c>
       <c r="F2939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2940" spans="1:6">
@@ -60638,7 +60638,7 @@
         <v>0</v>
       </c>
       <c r="F3012">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3013" spans="1:6">
@@ -61235,7 +61235,7 @@
         <v>0</v>
       </c>
       <c r="E3042">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3042">
         <v>0</v>
@@ -61335,7 +61335,7 @@
         <v>0</v>
       </c>
       <c r="E3047">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3047">
         <v>0</v>
@@ -61355,7 +61355,7 @@
         <v>0</v>
       </c>
       <c r="E3048">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3048">
         <v>0</v>
@@ -61435,7 +61435,7 @@
         <v>0</v>
       </c>
       <c r="E3052">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3052">
         <v>0</v>
@@ -61475,7 +61475,7 @@
         <v>0</v>
       </c>
       <c r="E3054">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3054">
         <v>0</v>
@@ -61518,7 +61518,7 @@
         <v>0</v>
       </c>
       <c r="F3056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3057" spans="1:6">
@@ -61898,7 +61898,7 @@
         <v>0</v>
       </c>
       <c r="F3075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3076" spans="1:6">
@@ -61958,7 +61958,7 @@
         <v>0</v>
       </c>
       <c r="F3078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3079" spans="1:6">
@@ -62375,7 +62375,7 @@
         <v>0</v>
       </c>
       <c r="E3099">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3099">
         <v>0</v>
@@ -63475,7 +63475,7 @@
         <v>1</v>
       </c>
       <c r="E3154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3154">
         <v>0</v>
@@ -64018,7 +64018,7 @@
         <v>0</v>
       </c>
       <c r="F3181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3182" spans="1:6">
@@ -64798,7 +64798,7 @@
         <v>0</v>
       </c>
       <c r="F3220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3221" spans="1:6">
@@ -64838,7 +64838,7 @@
         <v>0</v>
       </c>
       <c r="F3222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3223" spans="1:6">
@@ -64915,7 +64915,7 @@
         <v>0</v>
       </c>
       <c r="E3226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3226">
         <v>0</v>
@@ -64958,7 +64958,7 @@
         <v>0</v>
       </c>
       <c r="F3228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3229" spans="1:6">
@@ -65718,7 +65718,7 @@
         <v>0</v>
       </c>
       <c r="F3266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3267" spans="1:6">
@@ -65735,7 +65735,7 @@
         <v>0</v>
       </c>
       <c r="E3267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3267">
         <v>0</v>
@@ -65758,7 +65758,7 @@
         <v>0</v>
       </c>
       <c r="F3268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3269" spans="1:6">
@@ -65795,7 +65795,7 @@
         <v>0</v>
       </c>
       <c r="E3270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3270">
         <v>0</v>
@@ -66075,7 +66075,7 @@
         <v>0</v>
       </c>
       <c r="E3284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3284">
         <v>0</v>
@@ -66115,7 +66115,7 @@
         <v>0</v>
       </c>
       <c r="E3286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3286">
         <v>0</v>
@@ -66158,7 +66158,7 @@
         <v>0</v>
       </c>
       <c r="F3288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3289" spans="1:6">
@@ -67515,7 +67515,7 @@
         <v>0</v>
       </c>
       <c r="E3356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3356">
         <v>0</v>
@@ -68138,7 +68138,7 @@
         <v>0</v>
       </c>
       <c r="F3387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3388" spans="1:6">
@@ -68158,7 +68158,7 @@
         <v>0</v>
       </c>
       <c r="F3388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3389" spans="1:6">
@@ -69218,7 +69218,7 @@
         <v>0</v>
       </c>
       <c r="F3441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3442" spans="1:6">
@@ -70935,10 +70935,10 @@
         <v>1</v>
       </c>
       <c r="E3527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3528" spans="1:6">
@@ -70978,7 +70978,7 @@
         <v>0</v>
       </c>
       <c r="F3529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3530" spans="1:6">
@@ -70995,7 +70995,7 @@
         <v>0</v>
       </c>
       <c r="E3530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3530">
         <v>0</v>
@@ -71058,7 +71058,7 @@
         <v>0</v>
       </c>
       <c r="F3533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3534" spans="1:6">
@@ -71078,7 +71078,7 @@
         <v>0</v>
       </c>
       <c r="F3534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3535" spans="1:6">
@@ -71138,7 +71138,7 @@
         <v>0</v>
       </c>
       <c r="F3537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3538" spans="1:6">
@@ -71278,7 +71278,7 @@
         <v>0</v>
       </c>
       <c r="F3544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3545" spans="1:6">
@@ -71878,7 +71878,7 @@
         <v>0</v>
       </c>
       <c r="F3574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3575" spans="1:6">
@@ -72095,7 +72095,7 @@
         <v>0</v>
       </c>
       <c r="E3585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3585">
         <v>0</v>
@@ -73658,7 +73658,7 @@
         <v>0</v>
       </c>
       <c r="F3663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3664" spans="1:6">
@@ -74415,7 +74415,7 @@
         <v>0</v>
       </c>
       <c r="E3701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3701">
         <v>0</v>
@@ -75378,7 +75378,7 @@
         <v>0</v>
       </c>
       <c r="F3749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3750" spans="1:6">
@@ -75678,7 +75678,7 @@
         <v>0</v>
       </c>
       <c r="F3764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3765" spans="1:6">
@@ -76095,7 +76095,7 @@
         <v>0</v>
       </c>
       <c r="E3785">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3785">
         <v>0</v>
@@ -76498,7 +76498,7 @@
         <v>0</v>
       </c>
       <c r="F3805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3806" spans="1:6">
@@ -76518,7 +76518,7 @@
         <v>0</v>
       </c>
       <c r="F3806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3807" spans="1:6">
@@ -76838,7 +76838,7 @@
         <v>0</v>
       </c>
       <c r="F3822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3823" spans="1:6">
@@ -76875,7 +76875,7 @@
         <v>0</v>
       </c>
       <c r="E3824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3824">
         <v>0</v>
@@ -76995,7 +76995,7 @@
         <v>0</v>
       </c>
       <c r="E3830">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3830">
         <v>0</v>
@@ -77015,7 +77015,7 @@
         <v>0</v>
       </c>
       <c r="E3831">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3831">
         <v>0</v>
@@ -77058,7 +77058,7 @@
         <v>0</v>
       </c>
       <c r="F3833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3834" spans="1:6">
@@ -77095,7 +77095,7 @@
         <v>0</v>
       </c>
       <c r="E3835">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3835">
         <v>0</v>
@@ -77215,7 +77215,7 @@
         <v>0</v>
       </c>
       <c r="E3841">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3841">
         <v>0</v>
@@ -77335,7 +77335,7 @@
         <v>0</v>
       </c>
       <c r="E3847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3847">
         <v>0</v>
@@ -77358,7 +77358,7 @@
         <v>0</v>
       </c>
       <c r="F3848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3849" spans="1:6">
@@ -77378,7 +77378,7 @@
         <v>0</v>
       </c>
       <c r="F3849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3850" spans="1:6">
@@ -77578,7 +77578,7 @@
         <v>0</v>
       </c>
       <c r="F3859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3860" spans="1:6">
@@ -77855,7 +77855,7 @@
         <v>0</v>
       </c>
       <c r="E3873">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3873">
         <v>0</v>
@@ -77875,7 +77875,7 @@
         <v>0</v>
       </c>
       <c r="E3874">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3874">
         <v>0</v>
@@ -77998,7 +77998,7 @@
         <v>0</v>
       </c>
       <c r="F3880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3881" spans="1:6">
@@ -78955,7 +78955,7 @@
         <v>0</v>
       </c>
       <c r="E3928">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3928">
         <v>0</v>
@@ -79118,7 +79118,7 @@
         <v>0</v>
       </c>
       <c r="F3936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3937" spans="1:6">
@@ -79435,7 +79435,7 @@
         <v>0</v>
       </c>
       <c r="E3952">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3952">
         <v>0</v>
@@ -79535,7 +79535,7 @@
         <v>0</v>
       </c>
       <c r="E3957">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3957">
         <v>0</v>
@@ -79575,7 +79575,7 @@
         <v>0</v>
       </c>
       <c r="E3959">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3959">
         <v>0</v>
@@ -79598,7 +79598,7 @@
         <v>0</v>
       </c>
       <c r="F3960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3961" spans="1:6">
@@ -79615,7 +79615,7 @@
         <v>0</v>
       </c>
       <c r="E3961">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3961">
         <v>0</v>
@@ -79655,7 +79655,7 @@
         <v>0</v>
       </c>
       <c r="E3963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3963">
         <v>0</v>
@@ -79678,7 +79678,7 @@
         <v>0</v>
       </c>
       <c r="F3964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3965" spans="1:6">
@@ -79755,7 +79755,7 @@
         <v>0</v>
       </c>
       <c r="E3968">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3968">
         <v>0</v>
@@ -79998,7 +79998,7 @@
         <v>0</v>
       </c>
       <c r="F3980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3981" spans="1:6">
@@ -80078,7 +80078,7 @@
         <v>0</v>
       </c>
       <c r="F3984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3985" spans="1:6">
@@ -80235,7 +80235,7 @@
         <v>0</v>
       </c>
       <c r="E3992">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3992">
         <v>0</v>
@@ -80315,7 +80315,7 @@
         <v>0</v>
       </c>
       <c r="E3996">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3996">
         <v>0</v>
@@ -80938,7 +80938,7 @@
         <v>0</v>
       </c>
       <c r="F4027">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4028" spans="1:6">
@@ -81795,7 +81795,7 @@
         <v>0</v>
       </c>
       <c r="E4070">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4070">
         <v>0</v>
@@ -82055,7 +82055,7 @@
         <v>0</v>
       </c>
       <c r="E4083">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4083">
         <v>0</v>
@@ -82278,7 +82278,7 @@
         <v>0</v>
       </c>
       <c r="F4094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4095" spans="1:6">
@@ -83395,7 +83395,7 @@
         <v>0</v>
       </c>
       <c r="E4150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4150">
         <v>0</v>
@@ -83555,7 +83555,7 @@
         <v>0</v>
       </c>
       <c r="E4158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4158">
         <v>0</v>
@@ -84515,7 +84515,7 @@
         <v>0</v>
       </c>
       <c r="E4206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4206">
         <v>0</v>
@@ -84798,7 +84798,7 @@
         <v>0</v>
       </c>
       <c r="F4220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4221" spans="1:6">
@@ -85278,7 +85278,7 @@
         <v>0</v>
       </c>
       <c r="F4244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4245" spans="1:6">
@@ -86595,7 +86595,7 @@
         <v>0</v>
       </c>
       <c r="E4310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4310">
         <v>0</v>
@@ -86675,7 +86675,7 @@
         <v>0</v>
       </c>
       <c r="E4314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4314">
         <v>0</v>
@@ -87375,7 +87375,7 @@
         <v>0</v>
       </c>
       <c r="E4349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4349">
         <v>0</v>
@@ -87435,7 +87435,7 @@
         <v>0</v>
       </c>
       <c r="E4352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4352">
         <v>0</v>
@@ -87475,7 +87475,7 @@
         <v>0</v>
       </c>
       <c r="E4354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4354">
         <v>0</v>
@@ -88715,7 +88715,7 @@
         <v>0</v>
       </c>
       <c r="E4416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4416">
         <v>0</v>
